--- a/SocScrapeContent/sheets/browning.xlsx
+++ b/SocScrapeContent/sheets/browning.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clubs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Athletics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +38,52 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ff88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008888ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff88ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff88"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="00666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -249,6 +317,21 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -975,4 +1058,380 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Club Name</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Prominent club? (Choose up to 6 clubs to be placed in a Top Clubs category at the top of the clubs page)</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Description (1-2 sentences) for top clubs</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Category (Arts, Cultural, Volunteering &amp; Advocacy, Social, STEM, or Other)</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Field Trips</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Scholarships</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Volunteer Opportunities</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>Does the club participate in competitions?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>No Arts clubs listed</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="inlineStr"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>No Cultural clubs listed</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="inlineStr"/>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="inlineStr">
+        <is>
+          <t>Green Team/CA Recycling</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>GSA (Gay Straight Alliance)</t>
+        </is>
+      </c>
+      <c r="B5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="inlineStr">
+        <is>
+          <t>Key Club</t>
+        </is>
+      </c>
+      <c r="B6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="D6" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="inlineStr">
+        <is>
+          <t>Skills USA/C-cap</t>
+        </is>
+      </c>
+      <c r="B7" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="inlineStr">
+        <is>
+          <t>Short Description</t>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t>No Social clubs listed</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="inlineStr"/>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="inlineStr">
+        <is>
+          <t>No STEM clubs listed</t>
+        </is>
+      </c>
+      <c r="B9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22" t="inlineStr"/>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="inlineStr">
+        <is>
+          <t>No Other clubs listed</t>
+        </is>
+      </c>
+      <c r="B10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24" t="inlineStr"/>
+      <c r="D10" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Gender (Boys, Girls, Coed)</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>CIF -- years gone to playoffs (since 2000)</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>Moore League -- years won (since 2000)</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>Other tournaments/awards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>